--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\BDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDAECE-D7EE-4ED3-BF92-CBAE9E838988}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BDPbES!$A$1:$AK$14</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Notes:</t>
   </si>
@@ -61,12 +73,6 @@
     <t>for purposes of guaranteed dispatch.</t>
   </si>
   <si>
-    <t>We assign priority 1 to natural gas peaker and petroleum-fired plants, which are the</t>
-  </si>
-  <si>
-    <t>only types for which a non-zero quantity is specified for guaranteed dispatch in the BAU case</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -79,13 +85,46 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>for Indi</t>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Sec 5.2 (u), pp 138 - Must-run status for wind and solar</t>
+  </si>
+  <si>
+    <t>Sec 6.5 (11). Pp 176 - must-run for all RE except Biomass and Cogen</t>
+  </si>
+  <si>
+    <t>http://www.cercind.gov.in/2016/regulation/9.pdf</t>
+  </si>
+  <si>
+    <t>Indian Electricity Grid Code (IEGC)</t>
+  </si>
+  <si>
+    <t>Remaining sources follow merit-order dispatch and are uniformly given priority 2</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Priority Order (dimensionless)</t>
+  </si>
+  <si>
+    <t>Must-run status for wind and solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For India, we assign priority 1 to wind, solar as per must-run status accorded in IEGC </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,12 +142,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,12 +168,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +196,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>111532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61691B88-02BC-4E73-9111-50E3BDFF0CD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="2305050"/>
+          <a:ext cx="5845582" cy="1428749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>401088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF156757-7AC1-4521-96DB-9CA772980B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="0"/>
+          <a:ext cx="5611263" cy="2126676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -222,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -257,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,65 +611,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +714,10 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -611,150 +829,150 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AK9" si="0">$B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -762,147 +980,147 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:R12" si="1">$B3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -1203,7 +1421,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1650,147 +1868,147 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>1</v>
+        <f t="shared" ref="D9:AK17" si="2">$B9</f>
+        <v>2</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -1798,147 +2016,147 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1946,147 +2164,147 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2094,300 +2312,300 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <f>$B13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2531,6 +2749,450 @@
       <c r="AK14">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C17" si="3">$B15</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:AK17" si="4">$B17</f>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\India\Models\eps-india\InputData\elec\BDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDAECE-D7EE-4ED3-BF92-CBAE9E838988}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BDPbES!$A$1:$AK$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,23 +366,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -419,23 +401,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -611,10 +576,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -698,14 +663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,147 +2129,147 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
